--- a/LF/PreTAS/Liberia/lr_lf_pretas_3_resultat_fts_202210.xlsx
+++ b/LF/PreTAS/Liberia/lr_lf_pretas_3_resultat_fts_202210.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -346,13 +346,13 @@
     <t>Broken/partial control line</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
@@ -1564,12 +1564,12 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2134,10 +2134,10 @@
   <sheetPr/>
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
